--- a/test_export.xlsx
+++ b/test_export.xlsx
@@ -4,7 +4,6 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -376,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -421,64 +420,30 @@
         <v>SCHEDULED</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>yrdyrd</v>
+      </c>
+      <c r="B3" t="str">
+        <v>etgseg</v>
+      </c>
+      <c r="C3" t="str">
+        <v>esges</v>
+      </c>
+      <c r="D3" t="str">
+        <v>segesg</v>
+      </c>
+      <c r="E3" t="str">
+        <v>seges</v>
+      </c>
+      <c r="F3" t="str">
+        <v>sg</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>START DATE</v>
-      </c>
-      <c r="B1" t="str">
-        <v>NUMBER OF STUDENTS</v>
-      </c>
-      <c r="C1" t="str">
-        <v>IS FREE</v>
-      </c>
-      <c r="D1" t="str">
-        <v>COURSE TITLE</v>
-      </c>
-      <c r="E1" t="str">
-        <v>CONTACT</v>
-      </c>
-      <c r="F1" t="str">
-        <v>STATUS</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>43183</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Chemistry</v>
-      </c>
-      <c r="E2" t="str">
-        <v>(123) 456-7890</v>
-      </c>
-      <c r="F2" t="str">
-        <v>SCHEDULED</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>